--- a/Lab4/lab4.xlsx
+++ b/Lab4/lab4.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\Desktop\praca_semestralna\Lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloaded\MRSy-master\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9403F60-D43C-4D9C-9643-BFEE590E602F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9648" xr2:uid="{26B58C87-1482-4D64-81D9-98611AC01090}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>lab4</t>
   </si>
@@ -47,11 +46,23 @@
   <si>
     <t>error</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>zad4_a</t>
+  </si>
+  <si>
+    <t>zad4_b</t>
+  </si>
+  <si>
+    <t>zad4_c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +114,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -147,6 +158,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -336,7 +348,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2DE6-4D81-9BD1-FF64FB37AB24}"/>
             </c:ext>
@@ -350,11 +362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="496608976"/>
-        <c:axId val="406871600"/>
+        <c:axId val="416377664"/>
+        <c:axId val="416381976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="496608976"/>
+        <c:axId val="416377664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -401,6 +413,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -467,12 +480,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406871600"/>
+        <c:crossAx val="416381976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406871600"/>
+        <c:axId val="416381976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -519,6 +532,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -585,7 +599,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496608976"/>
+        <c:crossAx val="416377664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -599,14 +613,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -642,7 +656,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -686,6 +700,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -875,7 +890,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD8D-4C06-A122-CD8E86672117}"/>
             </c:ext>
@@ -889,11 +904,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="511808912"/>
-        <c:axId val="510107280"/>
+        <c:axId val="416371784"/>
+        <c:axId val="416377272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="511808912"/>
+        <c:axId val="416371784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -940,6 +955,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1006,12 +1022,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510107280"/>
+        <c:crossAx val="416377272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="510107280"/>
+        <c:axId val="416377272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1058,6 +1074,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1124,7 +1141,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511808912"/>
+        <c:crossAx val="416371784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1138,14 +1155,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1181,7 +1198,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -1225,6 +1242,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1261,8 +1279,113 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8461538461538464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9607843137254902E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3157894736842105E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9009900990099011E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9840637450199202E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.996007984031936E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3315579227696406E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.99000999000999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3878000000000001E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0530999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3869999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7763999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9697999999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2172000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8664000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.035E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2043E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8036999999999998E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1414,7 +1537,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DEA2-42D2-8653-CE4567DDE64B}"/>
             </c:ext>
@@ -1428,11 +1551,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405429296"/>
-        <c:axId val="628962272"/>
+        <c:axId val="420666360"/>
+        <c:axId val="420664400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405429296"/>
+        <c:axId val="420666360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1479,6 +1602,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1545,12 +1669,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628962272"/>
+        <c:crossAx val="420664400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="628962272"/>
+        <c:axId val="420664400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1598,6 +1722,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1664,7 +1789,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405429296"/>
+        <c:crossAx val="420666360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1678,13 +1803,1792 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wykres błędu w zależności od liczby węzłów (skala log-log) </a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Error</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$19:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.10909000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.85E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>9.990000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$19:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.35589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9200000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.33E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.02E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1000000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Error</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33864982502187224"/>
+                  <c:y val="0.2399074074074074"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$19:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.10909000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.85E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>9.990000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$19:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.35589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9200000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.33E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.02E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1000000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="518369088"/>
+        <c:axId val="518370656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="518369088"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518370656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="518370656"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518369088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wykres błędu w zależności od liczby węzłów (skala log-log) </a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Error</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33453696074030903"/>
+                  <c:y val="0.32024943476408807"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$33:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.85E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>9.990000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$33:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.10879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.69E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="518367128"/>
+        <c:axId val="518375752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="518367128"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518375752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="518375752"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518367128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wykres błędu w zależności od liczby węzłów (skala log-log) </a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Error</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$47:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.85E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>9.990000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$47:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.7199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>6.1103999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>3.4704000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.5574999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>8.8035000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>5.6508000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>1.4209999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>6.3280000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>3.563E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="194105848"/>
+        <c:axId val="194101144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="194105848"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194101144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="194101144"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194105848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1840,6 +3744,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2873,6 +4897,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3408,7 +6980,7 @@
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97198F4B-5D77-40CF-8032-47EE5F135773}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97198F4B-5D77-40CF-8032-47EE5F135773}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,7 +7016,7 @@
         <xdr:cNvPr id="3" name="Wykres 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8506AA-DAF1-42D8-9F50-193A4AE9AB0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D8506AA-DAF1-42D8-9F50-193A4AE9AB0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3465,22 +7037,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>7194</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>5584</xdr:rowOff>
+      <xdr:colOff>181129</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>167639</xdr:rowOff>
+      <xdr:colOff>196795</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>151073</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Wykres 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5CB8D5-6679-45F0-9770-7EE871182362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB5CB8D5-6679-45F0-9770-7EE871182362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3493,6 +7065,100 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>372717</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>16567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>364434</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>170623</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>207066</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>604631</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>154056</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3797,26 +7463,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463DDD1B-E62D-4220-A47B-CC7FC58E47C6}">
-  <dimension ref="A1:S22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>5</v>
       </c>
@@ -3824,7 +7491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3835,7 +7502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3855,7 +7522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>1/(10+1)</f>
         <v>9.0909090909090912E-2</v>
@@ -3878,7 +7545,7 @@
         <v>1.3878000000000001E-16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>1/(25+1)</f>
         <v>3.8461538461538464E-2</v>
@@ -3901,7 +7568,7 @@
         <v>3.0530999999999998E-16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>1/(50+1)</f>
         <v>1.9607843137254902E-2</v>
@@ -3924,7 +7591,7 @@
         <v>2.3869999999999999E-15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>1/(75+1)</f>
         <v>1.3157894736842105E-2</v>
@@ -3947,7 +7614,7 @@
         <v>1.7763999999999998E-15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>1/(100+1)</f>
         <v>9.9009900990099011E-3</v>
@@ -3970,7 +7637,7 @@
         <v>2.9697999999999999E-15</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>1/(150+1)</f>
         <v>6.6225165562913907E-3</v>
@@ -3993,7 +7660,7 @@
         <v>6.2172000000000001E-15</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>1/(250+1)</f>
         <v>3.9840637450199202E-3</v>
@@ -4016,7 +7683,7 @@
         <v>3.8664000000000002E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>1/(500+1)</f>
         <v>1.996007984031936E-3</v>
@@ -4039,7 +7706,7 @@
         <v>1.035E-13</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>1/(750+1)</f>
         <v>1.3315579227696406E-3</v>
@@ -4062,7 +7729,7 @@
         <v>1.2043E-13</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>1/(1000+1)</f>
         <v>9.99000999000999E-4</v>
@@ -4085,12 +7752,421 @@
         <v>5.8036999999999998E-13</v>
       </c>
     </row>
-    <row r="22" spans="7:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.10909000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.35589999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>3.85E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.15409999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="C21">
+        <v>7.9200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>1.32E-2</v>
+      </c>
+      <c r="C22">
+        <v>5.33E-2</v>
+      </c>
       <c r="G22" t="s">
         <v>5</v>
       </c>
       <c r="S22" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="C23">
+        <v>4.02E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>6.6E-3</v>
+      </c>
+      <c r="C24">
+        <v>2.69E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>200</v>
+      </c>
+      <c r="B25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C25">
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>250</v>
+      </c>
+      <c r="B26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C26">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>500</v>
+      </c>
+      <c r="B27">
+        <v>2E-3</v>
+      </c>
+      <c r="C27">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>750</v>
+      </c>
+      <c r="B28">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C28">
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="C29">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.10879999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>3.85E-2</v>
+      </c>
+      <c r="C34">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="C35">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>75</v>
+      </c>
+      <c r="B36">
+        <v>1.32E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="C37">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>150</v>
+      </c>
+      <c r="B38">
+        <v>6.6E-3</v>
+      </c>
+      <c r="C38">
+        <v>2.69E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>200</v>
+      </c>
+      <c r="B39">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C39">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>250</v>
+      </c>
+      <c r="B40">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C40">
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>500</v>
+      </c>
+      <c r="B41">
+        <v>2E-3</v>
+      </c>
+      <c r="C41">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>750</v>
+      </c>
+      <c r="B42">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C42">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1000</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="C43">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="C47">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>3.85E-2</v>
+      </c>
+      <c r="C48">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="C49">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>75</v>
+      </c>
+      <c r="B50">
+        <v>1.32E-2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>6.1103999999999998E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>100</v>
+      </c>
+      <c r="B51">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3.4704000000000001E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>150</v>
+      </c>
+      <c r="B52">
+        <v>6.6E-3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.5574999999999999E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>8.8035000000000007E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>250</v>
+      </c>
+      <c r="B54">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5.6508000000000002E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>500</v>
+      </c>
+      <c r="B55">
+        <v>2E-3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.4209999999999999E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>750</v>
+      </c>
+      <c r="B56">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6.3280000000000002E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1000</v>
+      </c>
+      <c r="B57" s="1">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3.563E-6</v>
       </c>
     </row>
   </sheetData>
